--- a/dataset/test_set.xlsx
+++ b/dataset/test_set.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
